--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 10:08:20</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 11:27:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 11:27:51</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 12:04:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222912.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 12:04:21</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 12:29:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222912.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 12:29:56</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 12:43:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225212.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 12:43:43</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 12:52:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225212.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220012.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 12:52:00</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 01:00:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220012.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 01:00:49</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 01:24:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223912.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 01:24:26</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 01:39:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223912.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224912.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 01:39:48</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 01:49:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224912.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 01:49:21</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 01:58:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 01:58:39</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 02:14:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222912.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 02:14:20</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 02:29:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222912.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 02:29:13</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 02:38:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 02:38:28</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 02:47:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 02:47:40</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 02:56:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 02:56:30</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 03:14:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 03:14:07</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 03:36:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 03:36:51</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 03:48:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 03:48:15</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 03:57:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 03:57:35</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 04:13:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 04:13:08</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 04:27:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 04:27:47</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 04:37:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 04:37:00</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 04:45:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 04:45:47</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 04:54:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221012.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 04:54:39</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 05:10:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221012.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 05:10:13</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 05:34:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 05:34:02</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 05:46:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 05:46:54</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 05:55:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 05:55:35</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 06:11:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 06:11:24</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 06:27:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 06:27:45</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 06:37:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 06:37:52</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 06:46:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 06:46:47</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 06:55:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221012.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 06:55:20</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 07:10:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221012.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 07:10:21</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 07:31:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 07:31:47</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 07:43:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 07:43:31</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 07:53:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 07:53:00</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 08:01:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221912.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 08:01:31</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 08:19:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221912.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 08:19:19</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 08:28:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 08:28:21</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 08:38:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 08:38:42</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 08:46:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 08:46:44</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 08:55:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 08:55:37</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 09:16:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 09:16:23</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 09:53:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 09:53:14</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 10:17:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 10:17:29</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 10:37:03</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -58015,7 +58015,7 @@
         <v>33</v>
       </c>
       <c r="S735" s="0" t="s">
-        <v>148</v>
+        <v>621</v>
       </c>
       <c r="T735" s="0" t="s">
         <v>50</v>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 10:37:03</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 10:45:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 10:45:57</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 10:55:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 10:55:03</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 11:06:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 11:06:47</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 11:24:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 11:24:56</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 11:35:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 11:35:06</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 11:43:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225212.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 11:43:49</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 11:52:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225212.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 11:52:43</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 12:01:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 12:01:34</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 12:23:20</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -6365,7 +6365,7 @@
     <t>-43°50'20.000"</t>
   </si>
   <si>
-    <t>4.415.970,00</t>
+    <t>4.419.412,00</t>
   </si>
   <si>
     <t>Califórnia</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 12:23:20</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 12:36:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 12:36:29</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 12:46:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 12:46:23</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 12:54:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 12:54:30</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 01:07:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 01:07:27</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 01:37:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 01:37:53</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 01:56:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 01:56:25</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 02:11:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 02:11:05</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 02:27:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 02:27:48</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 02:37:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 02:37:45</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 02:46:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 02:46:41</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 02:55:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221212.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 02:55:49</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 03:12:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221212.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 03:12:27</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 03:35:01</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -52568,13 +52568,13 @@
         <v>44</v>
       </c>
       <c r="N647" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O647" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P647" s="0" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="Q647" s="0" t="s">
         <v>48</v>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 03:35:01</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 03:47:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 03:47:50</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 03:57:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 03:57:15</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 04:13:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 04:13:29</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 04:25:28</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -5300,7 +5300,7 @@
     <t>ITAGIBÁ</t>
   </si>
   <si>
-    <t>31.716.586,66</t>
+    <t>31.918.360,72</t>
   </si>
   <si>
     <t>Barragem Santo Antônio</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 04:25:28</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 04:34:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 04:34:38</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 04:43:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225212.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 04:52:10</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 05:01:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 05:01:20</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 05:21:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223212.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 05:21:05</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 05:32:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223212.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224212.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 05:32:56</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 05:42:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224212.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 05:42:10</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 05:51:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220012.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 05:51:14</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 06:00:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220012.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 06:00:28</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 06:17:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222912.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 06:17:10</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 06:29:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222912.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223912.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 06:29:40</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 06:39:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223912.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 06:39:26</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 06:47:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 06:47:46</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 06:56:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 06:56:19</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 07:11:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222912.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 07:11:34</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 07:29:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222912.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224012.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 07:29:31</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 07:40:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224012.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224912.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 07:40:40</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 07:49:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224912.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 07:49:31</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 07:58:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 07:58:40</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 08:14:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223012.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 08:14:42</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 08:30:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223012.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 08:30:46</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 08:41:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225012.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 08:41:31</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 08:50:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-12.xlsx
+++ b/sigbm_download_2022-12-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225012.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225912.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="4250">
   <si>
-    <t>Informação extraída do SIGBM: 12/12/2022 - 08:50:30</t>
+    <t>Informação extraída do SIGBM: 12/12/2022 - 08:59:11</t>
   </si>
   <si>
     <t>ID Barragem</t>
